--- a/Handlungskostenkalkulation.xlsx
+++ b/Handlungskostenkalkulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Handlungskostenkalkulation</t>
   </si>
@@ -115,9 +115,6 @@
     <t>minus</t>
   </si>
   <si>
-    <t>203 Stunden</t>
-  </si>
-  <si>
     <t>6,23 - 5</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>Hochrechnung auf Monate</t>
-  </si>
-  <si>
     <t>Bezugspreis</t>
   </si>
   <si>
@@ -148,15 +142,9 @@
     <t>Handlungskosten</t>
   </si>
   <si>
-    <t>160 Stunden</t>
-  </si>
-  <si>
     <t>Selbstkosten pro Stunde</t>
   </si>
   <si>
-    <t>Selbstkosten insgesamt</t>
-  </si>
-  <si>
     <t>Barverkaufspreis pro Stunde</t>
   </si>
   <si>
@@ -166,16 +154,28 @@
     <t>Gewinnprozentsatz</t>
   </si>
   <si>
-    <t>Selbstkosten</t>
-  </si>
-  <si>
-    <t>Gewinn</t>
-  </si>
-  <si>
     <t>prozentsatz</t>
   </si>
   <si>
     <t>Zusammenrechnen</t>
+  </si>
+  <si>
+    <t>10 Wochen</t>
+  </si>
+  <si>
+    <t>Projektzeitberechnung</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>Gewinn von Selbstkosten</t>
+  </si>
+  <si>
+    <t>Zu berechnende Arbeitszeit</t>
+  </si>
+  <si>
+    <t>280 Std.</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -569,19 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -730,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -783,22 +770,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1103,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1102,7 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1337,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
         <v>21</v>
@@ -1356,71 +1342,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
+    <row r="17" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="4">
-        <v>160</v>
-      </c>
-      <c r="H17" s="25">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7">
-        <v>4</v>
-      </c>
-      <c r="H18" s="32">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="G17" s="7">
+        <v>400</v>
+      </c>
+      <c r="H17" s="32">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D19" s="36">
         <v>5</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="38">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="38">
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="43">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="26"/>
+    </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="43">
-        <v>7.4999999999999997E-2</v>
+      <c r="B21" s="44"/>
+      <c r="C21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="45">
+        <v>9.75E-3</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="18"/>
@@ -1430,10 +1410,10 @@
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="45">
-        <v>9.75E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="18"/>
@@ -1443,489 +1423,421 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="45">
-        <v>9.8000000000000004E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="18"/>
       <c r="G23" s="4"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="45">
-        <v>1.4999999999999999E-2</v>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46"/>
+      <c r="C24" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="48">
+        <v>4</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="18"/>
       <c r="G24" s="4"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="48">
-        <v>4</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="26"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.19575000000000001</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="4">
+        <v>19.574999999999999</v>
+      </c>
+      <c r="H25" s="24">
+        <v>6.23</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="23">
-        <v>0.19575000000000001</v>
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4">
-        <v>19.574999999999999</v>
+        <v>5</v>
       </c>
       <c r="H26" s="24">
-        <v>6.23</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="18">
+        <v>4</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G27" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="24">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="18">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="4">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="H28" s="24">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="4">
-        <v>203</v>
-      </c>
-      <c r="H29" s="24">
-        <v>998.76</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="49">
+        <v>16</v>
+      </c>
+      <c r="H29" s="37">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="21">
-        <v>4</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="4">
-        <v>4</v>
-      </c>
-      <c r="H30" s="50">
-        <v>1002.76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="49">
-        <v>4</v>
-      </c>
-      <c r="H31" s="37">
-        <v>4011.04</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C31" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="50">
+        <v>1496.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="29">
+        <v>400</v>
+      </c>
+    </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="51">
-        <v>1496.25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="54"/>
+      <c r="H33" s="29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
-      <c r="C34" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="29">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="29">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="28" t="s">
+      <c r="C34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="52">
-        <v>4011.04</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="16" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="51">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="37">
+        <f>SUM(H31:H34)</f>
+        <v>11880.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="37">
-        <f>SUM(H33:H36)</f>
-        <v>18707.29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
+      <c r="C37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="36">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="13">
+        <v>256</v>
+      </c>
+      <c r="H38" s="32">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="36">
+        <v>1280</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="57">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="17">
+        <v>11880.25</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="17">
+        <v>11880.25</v>
+      </c>
+      <c r="H41" s="59">
+        <v>9.2814453125000007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D43" s="36">
         <v>5</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="58">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="60">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="59" t="s">
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="65"/>
+      <c r="C44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="s">
+      <c r="D44" s="14">
+        <v>9.2814453125000007</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="14">
+        <v>9.2814453125000007</v>
+      </c>
+      <c r="H44" s="63">
+        <v>46.4072265625</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="17">
+        <v>46.4072265625</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="17">
+        <v>46.4072265625</v>
+      </c>
+      <c r="H45" s="37">
+        <v>51.4072265625</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="36">
+        <v>65</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="13">
-        <v>256</v>
-      </c>
-      <c r="H40" s="32">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
+      <c r="G48" s="66">
+        <v>280</v>
+      </c>
+      <c r="H48" s="64">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="36">
+        <v>65</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="36">
-        <v>1280</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="58">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="17">
-        <v>18707.29</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="17">
-        <v>18707.29</v>
-      </c>
-      <c r="H43" s="60">
-        <v>14.61484375</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="36">
-        <v>5</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="61">
-        <v>14.61484375</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="61">
-        <v>14.61484375</v>
-      </c>
-      <c r="H46" s="37">
-        <v>73.073999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
+      <c r="D51" s="20">
+        <v>51.41</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="61">
+        <v>51.41</v>
+      </c>
+      <c r="H51" s="62">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="17">
+        <v>13.59</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="36">
-        <v>1280</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="58">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="61">
-        <v>14.61484375</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="61">
-        <v>14.61484375</v>
-      </c>
-      <c r="H49" s="37">
-        <v>18706.944</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="36">
-        <v>100</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="20">
-        <v>73.069999999999993</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="63">
-        <v>73.069999999999993</v>
-      </c>
-      <c r="H52" s="64">
-        <v>26.93</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
-      <c r="C53" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="17">
-        <v>26.93</v>
-      </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="17">
-        <v>26.93</v>
-      </c>
-      <c r="H53" s="60">
-        <v>0.36855070480361202</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="36">
-        <v>18706.944</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="62">
-        <v>18706.944</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="66"/>
-      <c r="C56" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="14">
-        <v>0.36855070480361202</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="14">
-        <v>0.36855070480361202</v>
-      </c>
-      <c r="H56" s="65">
-        <v>6894.4573959216996</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="17">
-        <v>18706.944</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="17">
-        <v>18706.944</v>
-      </c>
-      <c r="H57" s="67">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H58" s="12"/>
-    </row>
+      <c r="G52" s="17">
+        <v>13.59</v>
+      </c>
+      <c r="H52" s="59">
+        <v>0.26434545808208498</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Handlungskostenkalkulation.xlsx
+++ b/Handlungskostenkalkulation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Handlungskostenkalkulation</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>280 Std.</t>
+  </si>
+  <si>
+    <t>Handlunskosten verringert</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -785,6 +788,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1089,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1652,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -1661,181 +1665,194 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="57">
+      <c r="H40" s="60">
         <v>1280</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="58" t="s">
+    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="65"/>
+      <c r="C41" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="67">
+        <v>10600.25</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="63"/>
+    </row>
+    <row r="42" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="17">
-        <v>11880.25</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19" t="s">
+      <c r="D42" s="17">
+        <v>10600.25</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="17">
-        <v>11880.25</v>
-      </c>
-      <c r="H41" s="59">
-        <v>9.2814453125000007</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="G42" s="17">
+        <v>10600.25</v>
+      </c>
+      <c r="H42" s="59">
+        <v>8.2814453125000007</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D44" s="36">
         <v>5</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="60">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="60">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="18" t="s">
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="65"/>
+      <c r="C45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="14">
-        <v>9.2814453125000007</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18" t="s">
+      <c r="D45" s="14">
+        <v>8.2814453125000007</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="14">
-        <v>9.2814453125000007</v>
-      </c>
-      <c r="H44" s="63">
+      <c r="G45" s="14">
+        <v>8.2814453125000007</v>
+      </c>
+      <c r="H45" s="63">
+        <v>41.4072265625</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="17">
+        <v>41.4072265625</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="17">
+        <v>41.4072265625</v>
+      </c>
+      <c r="H46" s="37">
         <v>46.4072265625</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="17">
+    <row r="47" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="36">
+        <v>55</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="66">
+        <v>280</v>
+      </c>
+      <c r="H49" s="64">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="36">
+        <v>55</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="20">
         <v>46.4072265625</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="17">
+      <c r="E52" s="18"/>
+      <c r="F52" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="61">
         <v>46.4072265625</v>
       </c>
-      <c r="H45" s="37">
-        <v>51.4072265625</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="36">
-        <v>65</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="60">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="66">
-        <v>280</v>
-      </c>
-      <c r="H48" s="64">
-        <v>18200</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="36">
-        <v>65</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="60">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="20">
-        <v>51.41</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="61">
-        <v>51.41</v>
-      </c>
-      <c r="H51" s="62">
-        <v>13.59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
-      <c r="C52" s="58" t="s">
+      <c r="H52" s="62">
+        <v>8.5927734375</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="17">
-        <v>13.59</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19" t="s">
+      <c r="D53" s="17">
+        <v>8.5927734375</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="17">
-        <v>13.59</v>
-      </c>
-      <c r="H52" s="59">
-        <v>0.26434545808208498</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G53" s="17">
+        <v>8.5927734375</v>
+      </c>
+      <c r="H53" s="59">
+        <v>0.18516024494434</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
